--- a/formatted/candidates/candidates-1/documents/candidates-documents-certificates.xlsx
+++ b/formatted/candidates/candidates-1/documents/candidates-documents-certificates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates-1/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DEC3F2-1E82-1341-93FE-6E641B5F5DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC30A49F-669D-0646-8C37-AD78DFE80E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="8860" windowWidth="41820" windowHeight="23380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="8840" windowWidth="41820" windowHeight="23380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7986,7 +7986,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E344" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
